--- a/data/trans_orig/iP30A2_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30A2_2023_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F86DBCE-26E0-43B1-A53D-319950BABE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F98405-BC82-47A4-A7D9-32D5686D07A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EC6F494-5AD1-469E-B54E-380FB4BFBE3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AF66CB-49D5-4DA7-B39C-A65F37E19E33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="195">
   <si>
     <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -221,7 +221,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -272,7 +272,7 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -281,172 +281,175 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>3,33%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,33%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>62,4%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>31,86%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>35,66%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>33,67%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -458,88 +461,85 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>64,83%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>64,73%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -551,76 +551,79 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>63,41%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>64,54%</t>
   </si>
   <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3518129-75F5-4F9B-83DD-E49F7B722AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5886733F-30E2-4A56-AD59-5121D4C98290}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2439,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE1EB3C-999D-4E86-80A8-6D29B07963FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99398FE2-DA78-4E53-9736-0D556DC5C8F7}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2876,7 @@
         <v>134</v>
       </c>
       <c r="I10" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
@@ -3026,7 +3029,7 @@
         <v>134</v>
       </c>
       <c r="I13" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>18</v>
@@ -3846,7 +3849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AE906-18E7-4DE7-9F2D-DFE9CC4F8DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E7A9B2-4A43-43E0-BC35-F177DDF2AD48}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5233,7 +5236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3BCA22-F392-4523-BB00-2B56B99D042E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8BA843-9711-4CB5-BD2E-75B100819CF1}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5915,10 +5918,10 @@
         <v>111</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -5927,13 +5930,13 @@
         <v>6687</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -5942,13 +5945,13 @@
         <v>17726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5966,13 @@
         <v>324463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>400</v>
@@ -5978,13 +5981,13 @@
         <v>280790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>819</v>
@@ -5993,13 +5996,13 @@
         <v>605254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6017,13 @@
         <v>156862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -6029,13 +6032,13 @@
         <v>160464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -6044,13 +6047,13 @@
         <v>317326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6127,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6139,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6154,7 +6157,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6172,13 @@
         <v>2089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6184,10 +6187,10 @@
         <v>3340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>143</v>
@@ -6432,7 +6435,7 @@
         <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6441,13 +6444,13 @@
         <v>11076</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -6459,10 +6462,10 @@
         <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6480,13 @@
         <v>475812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -6492,13 +6495,13 @@
         <v>414514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>1220</v>
@@ -6507,13 +6510,13 @@
         <v>890326</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6531,13 @@
         <v>233521</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>321</v>
@@ -6543,13 +6546,13 @@
         <v>226095</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>635</v>
@@ -6558,13 +6561,13 @@
         <v>459617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
